--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\FL\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8EA364-1774-4C73-839B-58AFE6ABE1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FBF57E-9E0A-4861-96FF-003F2EEA3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="8870" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="74">
   <si>
     <t>Sources:</t>
   </si>
@@ -365,9 +365,6 @@
   <si>
     <t>We use a 100% maximum value to represent drop-in biofuel replacements.</t>
   </si>
-  <si>
-    <t>Florida</t>
-  </si>
 </sst>
 </file>
 
@@ -501,7 +498,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -517,7 +514,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -830,29 +826,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.26953125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45450</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,285 +850,285 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>44317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1161,12 +1151,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -1276,7 +1266,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2266,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2390,7 +2380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2405,12 +2395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3070,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3180,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3400,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3510,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3634,12 +3624,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4079,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4519,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4629,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4739,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4865,12 +4855,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -4980,7 +4970,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5090,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5565,7 +5555,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5895,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -6005,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6131,12 +6121,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -6246,7 +6236,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6356,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6466,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6576,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6941,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7051,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -7161,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7271,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7397,12 +7387,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -7512,7 +7502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7622,7 +7612,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7732,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7842,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7952,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8097,7 +8087,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8207,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8317,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8427,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -8537,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8661,12 +8651,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -8776,7 +8766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8886,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8996,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9106,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9216,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9436,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9546,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -9656,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -9766,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9890,12 +9880,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -10005,7 +9995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10115,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10225,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10335,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10445,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10555,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10665,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10775,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -10885,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -10995,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11119,7 +11109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11133,17 +11123,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.15</v>
       </c>
@@ -11151,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11159,12 +11149,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -11172,7 +11162,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11180,12 +11170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -11193,7 +11183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11201,12 +11191,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11313,7 +11303,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11449,11 +11439,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11696,17 +11686,17 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
@@ -11725,12 +11715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -11840,7 +11830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11950,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12060,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12170,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12280,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12390,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12500,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12610,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12720,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -12830,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12954,12 +12944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -13069,7 +13059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13179,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13289,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13399,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13509,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13619,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13729,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13839,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13949,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -14059,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14185,12 +14175,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -14300,7 +14290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14410,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14520,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14630,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14740,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14885,7 +14875,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14995,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15105,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -15215,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -15325,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15451,12 +15441,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -15566,7 +15556,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15676,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15786,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15896,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16006,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16116,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16261,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16371,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -16481,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16591,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -16717,12 +16707,12 @@
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -16832,7 +16822,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16942,7 +16932,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -17052,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17162,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17272,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17382,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17527,7 +17517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17637,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -17747,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17857,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -17981,12 +17971,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -18096,7 +18086,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18206,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18316,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18426,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18536,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18646,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18756,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18866,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -18976,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -19086,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -19210,12 +19200,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -19325,7 +19315,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19435,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19545,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19655,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19765,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19875,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19985,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20095,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -20205,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -20315,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -20439,7 +20429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20454,12 +20444,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -20569,7 +20559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20679,7 +20669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20789,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20899,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -21009,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -21119,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21229,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21339,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -21449,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -21559,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -21683,12 +21673,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -21798,7 +21788,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21908,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22018,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22128,7 +22118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22238,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22348,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22458,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22568,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -22678,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -22788,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22912,7 +22902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22929,12 +22919,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -23044,7 +23034,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23154,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23264,7 +23254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23374,7 +23364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23484,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23629,7 +23619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23739,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23849,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -23959,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -24069,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -24195,12 +24185,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -24310,7 +24300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24420,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24530,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24640,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24750,7 +24740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24860,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -25005,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -25225,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -25335,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -25461,12 +25451,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -25576,7 +25566,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25686,7 +25676,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25796,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25906,7 +25896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26016,7 +26006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26126,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26271,7 +26261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26381,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -26491,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -26601,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -26725,12 +26715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -26840,7 +26830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26950,7 +26940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -27060,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -27170,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27280,7 +27270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27390,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27500,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27610,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -27720,7 +27710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -27830,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -27954,12 +27944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -28069,7 +28059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28179,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28289,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28399,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28509,7 +28499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28619,7 +28609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28729,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28839,7 +28829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -28949,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -29059,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -29183,7 +29173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29198,12 +29188,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -29310,7 +29300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29417,7 +29407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29524,7 +29514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29631,7 +29621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29738,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29845,7 +29835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29952,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -30059,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -30166,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -30273,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -30394,12 +30384,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -30506,7 +30496,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30613,7 +30603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30720,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30827,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30934,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31041,7 +31031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -31148,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31255,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -31362,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -31469,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -31592,12 +31582,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -31704,7 +31694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31811,7 +31801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31918,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32025,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32132,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32273,7 +32263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32380,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32487,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -32594,7 +32584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -32701,7 +32691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -32824,12 +32814,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -32936,7 +32926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -33043,7 +33033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -33150,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33257,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33364,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33471,7 +33461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33612,7 +33602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33719,7 +33709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -33826,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -33933,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -34054,12 +34044,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -34169,7 +34159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34279,7 +34269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34389,7 +34379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34499,7 +34489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34609,7 +34599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34719,7 +34709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34829,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34939,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -35049,7 +35039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -35159,7 +35149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -35283,12 +35273,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -35395,7 +35385,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35502,7 +35492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35609,7 +35599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35716,7 +35706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35823,7 +35813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35930,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -36037,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -36144,7 +36134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -36251,7 +36241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -36358,7 +36348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -36479,7 +36469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36494,12 +36484,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -36606,7 +36596,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36713,7 +36703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36820,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36927,7 +36917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -37034,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -37141,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37248,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37355,7 +37345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -37462,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -37569,7 +37559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -37690,12 +37680,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -37802,7 +37792,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37909,7 +37899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -38016,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -38123,7 +38113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38230,7 +38220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38337,7 +38327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38444,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38551,7 +38541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -38658,7 +38648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -38765,7 +38755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -38886,12 +38876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -38998,7 +38988,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -39105,7 +39095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39212,7 +39202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39319,7 +39309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39426,7 +39416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39567,7 +39557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39674,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39781,7 +39771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -39888,7 +39878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -39995,7 +39985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -40116,12 +40106,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -40228,7 +40218,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40335,7 +40325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40442,7 +40432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40549,7 +40539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40656,7 +40646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40763,7 +40753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40904,7 +40894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -41011,7 +41001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -41118,7 +41108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -41225,7 +41215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41346,12 +41336,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -41458,7 +41448,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41565,7 +41555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41672,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41779,7 +41769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41886,7 +41876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41993,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -42100,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42207,7 +42197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -42314,7 +42304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -42421,7 +42411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -42542,7 +42532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42557,12 +42547,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -42669,7 +42659,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42776,7 +42766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42883,7 +42873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42990,7 +42980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -43097,7 +43087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43204,7 +43194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43311,7 +43301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43418,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -43525,7 +43515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -43632,7 +43622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -43753,12 +43743,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -43865,7 +43855,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43972,7 +43962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -44079,7 +44069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44186,7 +44176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44293,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44400,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44507,7 +44497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44614,7 +44604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -44721,7 +44711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -44828,7 +44818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -44949,12 +44939,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -45064,7 +45054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -45174,7 +45164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45284,7 +45274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45394,7 +45384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45504,7 +45494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45614,7 +45604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45724,7 +45714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45834,7 +45824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -45944,7 +45934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -46054,7 +46044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -46178,12 +46168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -46290,7 +46280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46397,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46504,7 +46494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46611,7 +46601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46718,7 +46708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46859,7 +46849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46966,7 +46956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -47073,7 +47063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -47180,7 +47170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -47287,7 +47277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -47408,12 +47398,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -47520,7 +47510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47627,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47734,7 +47724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47841,7 +47831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47948,7 +47938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -48055,7 +48045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -48196,7 +48186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48303,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -48410,7 +48400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -48517,7 +48507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -48638,12 +48628,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -48750,7 +48740,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48857,7 +48847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48964,7 +48954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -49071,7 +49061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49178,7 +49168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49285,7 +49275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49392,7 +49382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49499,7 +49489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -49606,7 +49596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -49713,7 +49703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -49834,7 +49824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49849,12 +49839,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -49961,7 +49951,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -50068,7 +50058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -50175,7 +50165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50282,7 +50272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50389,7 +50379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50496,7 +50486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50603,7 +50593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50710,7 +50700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -50817,7 +50807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -50924,7 +50914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -51045,12 +51035,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -51157,7 +51147,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51264,7 +51254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51371,7 +51361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51478,7 +51468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51585,7 +51575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51692,7 +51682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51799,7 +51789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51906,7 +51896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -52013,7 +52003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -52120,7 +52110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -52241,12 +52231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -52353,7 +52343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52460,7 +52450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52567,7 +52557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52674,7 +52664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52781,7 +52771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52922,7 +52912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -53029,7 +53019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -53136,7 +53126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -53243,7 +53233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -53350,7 +53340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -53471,12 +53461,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -53583,7 +53573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53690,7 +53680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53797,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53904,7 +53894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -54011,7 +54001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -54118,7 +54108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54259,7 +54249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54366,7 +54356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -54473,7 +54463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -54580,7 +54570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -54701,12 +54691,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -54813,7 +54803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54920,7 +54910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -55027,7 +55017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -55134,7 +55124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55241,7 +55231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55348,7 +55338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55455,7 +55445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55562,7 +55552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -55669,7 +55659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -55776,7 +55766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -55897,7 +55887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55914,12 +55904,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -56029,7 +56019,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -56139,7 +56129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56249,7 +56239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56359,7 +56349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56469,7 +56459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56614,7 +56604,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56724,7 +56714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56834,7 +56824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -56944,7 +56934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -57054,7 +57044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -57178,12 +57168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -57290,7 +57280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57397,7 +57387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57504,7 +57494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57611,7 +57601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57718,7 +57708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57825,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57932,7 +57922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -58039,7 +58029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -58146,7 +58136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -58253,7 +58243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -58374,12 +58364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -58486,7 +58476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58593,7 +58583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58700,7 +58690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58807,7 +58797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58914,7 +58904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -59021,7 +59011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -59128,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59235,7 +59225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -59342,7 +59332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -59449,7 +59439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -59570,12 +59560,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -59682,7 +59672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59789,7 +59779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59896,7 +59886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -60003,7 +59993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -60110,7 +60100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -60251,7 +60241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60358,7 +60348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60465,7 +60455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -60572,7 +60562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -60679,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -60800,12 +60790,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -60912,7 +60902,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -61019,7 +61009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -61126,7 +61116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61233,7 +61223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61340,7 +61330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61447,7 +61437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61588,7 +61578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61695,7 +61685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -61802,7 +61792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -61909,7 +61899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -62030,12 +62020,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -62142,7 +62132,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62249,7 +62239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62356,7 +62346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62463,7 +62453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62570,7 +62560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62677,7 +62667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62784,7 +62774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62891,7 +62881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -62998,7 +62988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -63105,7 +63095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -63226,7 +63216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63241,12 +63231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -63353,7 +63343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63460,7 +63450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63567,7 +63557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63674,7 +63664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63781,7 +63771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63888,7 +63878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63995,7 +63985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -64102,7 +64092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -64209,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -64316,7 +64306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -64437,12 +64427,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -64549,7 +64539,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64656,7 +64646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64763,7 +64753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64870,7 +64860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64977,7 +64967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -65084,7 +65074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65191,7 +65181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65298,7 +65288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -65405,7 +65395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -65512,7 +65502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -65633,12 +65623,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -65745,7 +65735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65852,7 +65842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65959,7 +65949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -66066,7 +66056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -66173,7 +66163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66314,7 +66304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66421,7 +66411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66528,7 +66518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -66635,7 +66625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -66742,7 +66732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -66865,12 +66855,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -66977,7 +66967,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -67084,7 +67074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67191,7 +67181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67298,7 +67288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67405,7 +67395,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67512,7 +67502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67653,7 +67643,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67760,7 +67750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -67867,7 +67857,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -67974,7 +67964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -68097,12 +68087,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -68212,7 +68202,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68322,7 +68312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68432,7 +68422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68542,7 +68532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68652,7 +68642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68762,7 +68752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68872,7 +68862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68982,7 +68972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -69092,7 +69082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -69202,7 +69192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -69326,12 +69316,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -69438,7 +69428,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69545,7 +69535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69652,7 +69642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69759,7 +69749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69866,7 +69856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69973,7 +69963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -70080,7 +70070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70187,7 +70177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -70294,7 +70284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -70401,7 +70391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -70522,7 +70512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70537,12 +70527,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -70652,7 +70642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70762,7 +70752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70872,7 +70862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70982,7 +70972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -71092,7 +71082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71202,7 +71192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71312,7 +71302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71422,7 +71412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -71532,7 +71522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -71642,7 +71632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -71766,12 +71756,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -71881,7 +71871,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71991,7 +71981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -72101,7 +72091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72211,7 +72201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72321,7 +72311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72431,7 +72421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72541,7 +72531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72651,7 +72641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -72761,7 +72751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -72871,7 +72861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -72997,12 +72987,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -73112,7 +73102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73222,7 +73212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73332,7 +73322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73442,7 +73432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73552,7 +73542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73662,7 +73652,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73772,7 +73762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73882,7 +73872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -73992,7 +73982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -74102,7 +74092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -74228,12 +74218,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -74343,7 +74333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74453,7 +74443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74563,7 +74553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74673,7 +74663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74783,7 +74773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74893,7 +74883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -75003,7 +74993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75113,7 +75103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -75223,7 +75213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -75333,7 +75323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -75459,12 +75449,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -75574,7 +75564,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75684,7 +75674,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75794,7 +75784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75904,7 +75894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -76014,7 +76004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76124,7 +76114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76234,7 +76224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76344,7 +76334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -76454,7 +76444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -76564,7 +76554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -76688,12 +76678,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -76803,7 +76793,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76913,7 +76903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -77023,7 +77013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77133,7 +77123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77243,7 +77233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77353,7 +77343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77463,7 +77453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77573,7 +77563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -77683,7 +77673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -77793,7 +77783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -77917,12 +77907,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -78032,7 +78022,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78142,7 +78132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78252,7 +78242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78362,7 +78352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78472,7 +78462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78582,7 +78572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78692,7 +78682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78802,7 +78792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -78912,7 +78902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -79022,7 +79012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -79146,7 +79136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79163,12 +79153,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -79278,7 +79268,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79388,7 +79378,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79498,7 +79488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79608,7 +79598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79718,7 +79708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79863,7 +79853,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79973,7 +79963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80083,7 +80073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -80193,7 +80183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -80303,7 +80293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -80430,12 +80420,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -80545,7 +80535,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80655,7 +80645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80765,7 +80755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80875,7 +80865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80985,7 +80975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81095,7 +81085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81205,7 +81195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81315,7 +81305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -81425,7 +81415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -81535,7 +81525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -81659,12 +81649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -81774,7 +81764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81884,7 +81874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81994,7 +81984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82104,7 +82094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82214,7 +82204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82324,7 +82314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82434,7 +82424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82544,7 +82534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -82654,7 +82644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -82764,7 +82754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -82890,12 +82880,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -83005,7 +82995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83115,7 +83105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83225,7 +83215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83335,7 +83325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83445,7 +83435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83590,7 +83580,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83700,7 +83690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83810,7 +83800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -83920,7 +83910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -84030,7 +84020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -84156,12 +84146,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -84271,7 +84261,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84381,7 +84371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84491,7 +84481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84601,7 +84591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84711,7 +84701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84821,7 +84811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84966,7 +84956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85076,7 +85066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -85186,7 +85176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -85296,7 +85286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -85422,12 +85412,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -85537,7 +85527,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85647,7 +85637,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85757,7 +85747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85867,7 +85857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85977,7 +85967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86122,7 +86112,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86232,7 +86222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86342,7 +86332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -86452,7 +86442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -86562,7 +86552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -86686,12 +86676,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -86801,7 +86791,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86911,7 +86901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -87021,7 +87011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87131,7 +87121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87241,7 +87231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87351,7 +87341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87461,7 +87451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87571,7 +87561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -87681,7 +87671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -87791,7 +87781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -87915,12 +87905,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -88030,7 +88020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88140,7 +88130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88250,7 +88240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88360,7 +88350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88470,7 +88460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88580,7 +88570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88690,7 +88680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88800,7 +88790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -88910,7 +88900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -89020,7 +89010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -89144,12 +89134,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -89259,7 +89249,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89369,7 +89359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89479,7 +89469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89589,7 +89579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89699,7 +89689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89809,7 +89799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89919,7 +89909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -90029,7 +90019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -90139,7 +90129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -90249,7 +90239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
